--- a/refs/heads/main/all-profiles.xlsx
+++ b/refs/heads/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T07:40:14+00:00</t>
+    <t>2023-01-11T07:56:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/all-profiles.xlsx
+++ b/refs/heads/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T07:56:36+00:00</t>
+    <t>2023-01-11T08:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/all-profiles.xlsx
+++ b/refs/heads/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T08:04:46+00:00</t>
+    <t>2023-01-11T08:30:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/all-profiles.xlsx
+++ b/refs/heads/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T08:30:54+00:00</t>
+    <t>2023-01-11T09:49:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/all-profiles.xlsx
+++ b/refs/heads/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T09:59:49+00:00</t>
+    <t>2023-01-11T10:05:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/all-profiles.xlsx
+++ b/refs/heads/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T10:23:12+00:00</t>
+    <t>2023-01-11T10:43:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/all-profiles.xlsx
+++ b/refs/heads/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T10:43:46+00:00</t>
+    <t>2023-01-11T10:44:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/all-profiles.xlsx
+++ b/refs/heads/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T10:44:27+00:00</t>
+    <t>2023-01-11T10:45:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
